--- a/Projekt/IPcimzes.xlsx
+++ b/Projekt/IPcimzes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CB23A8-6F5B-44E8-A64B-B06FD8D774AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C739708A-6FD6-4A56-B2CE-92A42837909E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,7 +463,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,10 +603,10 @@
       <c r="A24" t="s">
         <v>9</v>
       </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
       <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
         <v>11</v>
       </c>
       <c r="I24" t="s">

--- a/Projekt/IPcimzes.xlsx
+++ b/Projekt/IPcimzes.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C739708A-6FD6-4A56-B2CE-92A42837909E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084B368A-C5FA-40E9-8D80-A5A4F57674EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +555,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -566,7 +566,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -577,7 +577,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -599,7 +599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -609,11 +609,11 @@
       <c r="D24" t="s">
         <v>11</v>
       </c>
-      <c r="I24" t="s">
+      <c r="F24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -627,7 +627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -641,7 +641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -669,7 +669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -683,7 +683,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -697,7 +697,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
